--- a/meta_dqa_transferoffice.xlsx
+++ b/meta_dqa_transferoffice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projekte\08_DIZ_intern\DIZ\Broad-Consent\Transferstelle\R-Codes-App\Transferstelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344B5C16-A213-4A66-BE68-B06FD5CE8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794023D6-EDCE-47E1-889C-C90F08FB2AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item_level" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>VAR_NAMES</t>
   </si>
@@ -166,15 +166,9 @@
     <t>date_of_submission | data_provision</t>
   </si>
   <si>
-    <t>rounddown(datediff([date_of_submission],[data_provision], "d") ) &gt; 0</t>
-  </si>
-  <si>
     <t>desired_dataset | available_dataset</t>
   </si>
   <si>
-    <t>[desired_dataset] &lt; [available_dataset]</t>
-  </si>
-  <si>
     <t>[date_of_submission] =  "" and [data_provision] &lt;&gt; ""</t>
   </si>
   <si>
@@ -184,37 +178,25 @@
     <t>archiving | data_provision</t>
   </si>
   <si>
-    <t>rounddown(datediff([data_provision],[archiving], "d") ) &gt; 0</t>
-  </si>
-  <si>
     <t>[date_of_submission] =  "" and [archiving] &lt;&gt; ""</t>
   </si>
   <si>
     <t>[data_provision] =  "" and [archiving] &lt;&gt; ""</t>
   </si>
   <si>
-    <t>Data provision before date of submission</t>
-  </si>
-  <si>
     <t>Available dataset is smaller than desired dataset</t>
   </si>
   <si>
-    <t>Archiving before date of submission</t>
-  </si>
-  <si>
-    <t>Archiving before data provision</t>
-  </si>
-  <si>
     <t>Data provision without data submission</t>
   </si>
   <si>
-    <t>archiving without date of submission</t>
-  </si>
-  <si>
     <t>Archiving without data provision</t>
   </si>
   <si>
-    <t>rounddown(datediff([date_of_submission],[archiving], "d") ) &gt; 0</t>
+    <t>[desired_dataset] &gt; [available_dataset]</t>
+  </si>
+  <si>
+    <t>Archiving without date of submission</t>
   </si>
 </sst>
 </file>
@@ -664,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,10 +903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E599B4F-2B42-4EEE-A507-F7F5A691D820}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,100 +948,58 @@
       <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>45</v>
+      <c r="A2" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
     </row>

--- a/meta_dqa_transferoffice.xlsx
+++ b/meta_dqa_transferoffice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projekte\08_DIZ_intern\DIZ\Broad-Consent\Transferstelle\R-Codes-App\Transferstelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794023D6-EDCE-47E1-889C-C90F08FB2AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8810E9B-81B8-400B-87C2-84498E9F4518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="1470" windowWidth="24825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item_level" sheetId="1" r:id="rId1"/>
@@ -154,36 +154,21 @@
     <t>Data provision</t>
   </si>
   <si>
-    <t>data_provision</t>
-  </si>
-  <si>
     <t>Archiving</t>
   </si>
   <si>
-    <t>archiving</t>
-  </si>
-  <si>
     <t>date_of_submission | data_provision</t>
   </si>
   <si>
     <t>desired_dataset | available_dataset</t>
   </si>
   <si>
-    <t>[date_of_submission] =  "" and [data_provision] &lt;&gt; ""</t>
-  </si>
-  <si>
     <t>date_of_submission |archiving</t>
   </si>
   <si>
     <t>archiving | data_provision</t>
   </si>
   <si>
-    <t>[date_of_submission] =  "" and [archiving] &lt;&gt; ""</t>
-  </si>
-  <si>
-    <t>[data_provision] =  "" and [archiving] &lt;&gt; ""</t>
-  </si>
-  <si>
     <t>Available dataset is smaller than desired dataset</t>
   </si>
   <si>
@@ -197,6 +182,21 @@
   </si>
   <si>
     <t>Archiving without date of submission</t>
+  </si>
+  <si>
+    <t>[date_of_submission] =  "" and [date_of_data provision] &lt;&gt; ""</t>
+  </si>
+  <si>
+    <t>[date_of_submission] =  "" and [date_of_archiving] &lt;&gt; ""</t>
+  </si>
+  <si>
+    <t>[date_of_data provision] =  "" and [date_of_archiving] &lt;&gt; ""</t>
+  </si>
+  <si>
+    <t>date_of_data_provision</t>
+  </si>
+  <si>
+    <t>date_of_archiving</t>
   </si>
 </sst>
 </file>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -879,10 +879,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E599B4F-2B42-4EEE-A507-F7F5A691D820}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,13 +949,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>19</v>
@@ -963,13 +963,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
@@ -977,13 +977,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -991,13 +991,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>19</v>
